--- a/리볼트데이 버그 리포트19-01-31.xlsx
+++ b/리볼트데이 버그 리포트19-01-31.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863A1601-1683-447A-8CF4-6F0E5ED0F94E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="버그 리포트" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정 전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구현함 인스펙터에서 추가 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,18 +326,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>게임 오버 후 메인화면으로 갔다가 다시 게임에 들어가면 로드했을 때와 같은 문제 발생</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>버그 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결투 장면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,12 +428,6 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -441,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -449,9 +458,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,10 +494,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,63 +779,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="8.8984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.19921875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="98.09765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.69921875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="8.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="98.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.75" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="D4" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
@@ -849,52 +852,52 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="11">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5">
+      <c r="F13" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
         <v>53</v>
       </c>
@@ -904,49 +907,49 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="16">
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="10">
         <v>4</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="D15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="10">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
+      <c r="F16" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -954,181 +957,197 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3">
         <v>6</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4">
         <v>7</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5">
+      <c r="F19" s="4"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4">
         <v>8</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5">
-        <v>9</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="10">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5">
-        <v>10</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9">
+        <v>11</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="2">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D42" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1140,204 +1159,204 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0833F4AE-811B-40B8-8E0F-7B2DB88DFEEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="14">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="12">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="10">
+      <c r="E4" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="14">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="14">
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>6</v>
       </c>
     </row>
